--- a/src/excel-Report/reporte_empresas.xlsx
+++ b/src/excel-Report/reporte_empresas.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,9 +503,23 @@
         <v>Activo</v>
       </c>
     </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Multiservicios STS</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Seguridad</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Activo</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>